--- a/parser_server/mapper/empty_data.xlsx
+++ b/parser_server/mapper/empty_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/earlysloth/webform-parser/parser_server/mapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47C20D30-4CC4-4F43-B3B7-6735EDF952F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CDCE27-F65F-F940-91C6-42D847E236BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>현재 기분과 가장 비슷한 것은?</t>
+  </si>
+  <si>
+    <t>jksdhkaj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -319,7 +323,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:H36"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -517,7 +521,9 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
